--- a/dataset_v1/task_sheets/SalesRep_Ans.xlsx
+++ b/dataset_v1/task_sheets/SalesRep_Ans.xlsx
@@ -1,129 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\Business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF63E70-6F69-4DDD-B7C6-97BFC7991A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="12936" windowHeight="8736" xr2:uid="{34AF729F-F138-4F63-B5F4-000FED87377B}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8736" windowWidth="12936" xWindow="3240" yWindow="3240"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Sales Rep</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Ivelisse Peel</t>
-  </si>
-  <si>
-    <t>Sigrid Grooms</t>
-  </si>
-  <si>
-    <t>Majorie Flaherty</t>
-  </si>
-  <si>
-    <t>Stevie Fisk</t>
-  </si>
-  <si>
-    <t>Nova Bolduc</t>
-  </si>
-  <si>
-    <t>Naoma Moyer</t>
-  </si>
-  <si>
-    <t>Eric Minter</t>
-  </si>
-  <si>
-    <t>Dotty Dorn</t>
-  </si>
-  <si>
-    <t>Kandice Hussey</t>
-  </si>
-  <si>
-    <t>Cleo Nixon</t>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -183,29 +111,35 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="43"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="13">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{EC6376F9-DF58-4834-83D9-24BE6042C869}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Comma 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -216,15 +150,75 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -524,350 +518,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2286FFB6-4D1D-4A5D-81E1-A54EC9DFA2FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sales Rep</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Ivelisse Peel</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="n">
         <v>696</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="9" t="n">
         <v>420</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10" t="n">
         <v>722</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9" t="n">
         <v>428</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="9" t="n">
         <v>279</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9" t="n">
         <v>349</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="11">
         <f>SUM(B2:G2)</f>
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Sigrid Grooms</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n">
         <v>429</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9" t="n">
         <v>419</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="12" t="n">
         <v>146</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9" t="n">
         <v>253</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10" t="n">
         <v>730</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9" t="n">
         <v>473</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H11" si="0">SUM(B3:G3)</f>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="H3" s="11">
+        <f>SUM(B3:G3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Majorie Flaherty</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="n">
         <v>563</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9" t="n">
         <v>325</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9" t="n">
         <v>197</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="9" t="n">
         <v>229</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9" t="n">
         <v>664</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9" t="n">
         <v>275</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="H4" s="11">
+        <f>SUM(B4:G4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Stevie Fisk</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>710</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9" t="n">
         <v>287</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9" t="n">
         <v>209</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9" t="n">
         <v>485</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="9" t="n">
         <v>459</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9" t="n">
         <v>498</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="H5" s="11">
+        <f>SUM(B5:G5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Nova Bolduc</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>767</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9" t="n">
         <v>283</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9" t="n">
         <v>624</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="12" t="n">
         <v>149</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="12" t="n">
         <v>156</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9" t="n">
         <v>460</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="H6" s="11">
+        <f>SUM(B6:G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Naoma Moyer</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>220</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12" t="n">
         <v>282</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9" t="n">
         <v>390</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10" t="n">
         <v>714</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9" t="n">
         <v>563</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10" t="n">
         <v>783</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="H7" s="11">
+        <f>SUM(B7:G7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Eric Minter</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n">
         <v>231</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9" t="n">
         <v>735</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9" t="n">
         <v>416</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9" t="n">
         <v>378</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9" t="n">
         <v>368</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9" t="n">
         <v>353</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="H8" s="11">
+        <f>SUM(B8:G8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Dotty Dorn</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n">
         <v>229</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9" t="n">
         <v>496</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9" t="n">
         <v>519</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9" t="n">
         <v>309</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9" t="n">
         <v>616</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9" t="n">
         <v>405</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="H9" s="11">
+        <f>SUM(B9:G9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Kandice Hussey</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>752</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10" t="n">
         <v>773</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9" t="n">
         <v>483</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9" t="n">
         <v>220</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9" t="n">
         <v>597</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="12" t="n">
         <v>175</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="H10" s="11">
+        <f>SUM(B10:G10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Cleo Nixon</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="n">
         <v>255</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9" t="n">
         <v>567</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9" t="n">
         <v>237</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9" t="n">
         <v>692</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9" t="n">
         <v>245</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9" t="n">
         <v>472</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="H11" s="11">
+        <f>SUM(B11:G11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
-        <v>4852</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" ref="C12:H12" si="1">SUM(C2:C11)</f>
-        <v>4587</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
-        <v>3943</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>3857</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>4677</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>4243</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="1"/>
-        <v>26159</v>
+        <v/>
+      </c>
+      <c r="C12" s="11">
+        <f>SUM(C2:C11)</f>
+        <v/>
+      </c>
+      <c r="D12" s="11">
+        <f>SUM(D2:D11)</f>
+        <v/>
+      </c>
+      <c r="E12" s="11">
+        <f>SUM(E2:E11)</f>
+        <v/>
+      </c>
+      <c r="F12" s="11">
+        <f>SUM(F2:F11)</f>
+        <v/>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v/>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
-    <cfRule type="top10" priority="1" bottom="1" rank="1"/>
+    <cfRule dxfId="0" priority="2" rank="1" type="top10"/>
+    <cfRule bottom="1" priority="1" rank="1" type="top10"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>